--- a/tests/test_data/igor_mercator/checking_pathways_bxyl.xlsx
+++ b/tests/test_data/igor_mercator/checking_pathways_bxyl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="22620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>File Name</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>beta-xylose32-TS_am1.log</t>
+  </si>
+  <si>
+    <t>beta-xylose86-TS_am1-ircf-am1.log</t>
+  </si>
+  <si>
+    <t>beta-xylose86-TS_am1-ircr-am1.log</t>
+  </si>
+  <si>
+    <t>beta-xylose86-TS_am1.log</t>
   </si>
 </sst>
 </file>
@@ -439,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -479,7 +488,7 @@
         <v>-3.6599999999997745E-4</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D16" si="0">C3*627.5095</f>
+        <f t="shared" ref="D3:D22" si="0">C3*627.5095</f>
         <v>-0.22966847699998585</v>
       </c>
     </row>
@@ -661,6 +670,88 @@
       <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>-2.1203546005000131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>-0.216084</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-0.217057</v>
+      </c>
+      <c r="C18">
+        <f>B18-B17</f>
+        <v>-9.7300000000000164E-4</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.61056674350000106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>-0.218887</v>
+      </c>
+      <c r="C19">
+        <f>B19-B17</f>
+        <v>-2.8029999999999999E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.7589091285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>-0.217642</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>-0.21975600000000001</v>
+      </c>
+      <c r="C21">
+        <f>B21-B20</f>
+        <v>-2.1140000000000048E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.326555083000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>-0.21748999999999999</v>
+      </c>
+      <c r="C22">
+        <f>B22-B20</f>
+        <v>1.5200000000001324E-4</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5381444000008309E-2</v>
       </c>
     </row>
   </sheetData>
